--- a/medicine/Pharmacie/Ubrogepant/Ubrogepant.xlsx
+++ b/medicine/Pharmacie/Ubrogepant/Ubrogepant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ubrogepant est une molécule inhibitrice du récepteur au peptide relié au gène calcitonine, utilisé comme médicament de la migraine[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ubrogepant est une molécule inhibitrice du récepteur au peptide relié au gène calcitonine, utilisé comme médicament de la migraine,.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il permet la sédation de la crise migraineuse dans un cas sur cinq après une prise de 50 mg[3] ou de 25 mg d'ubrogepant[4]. Cette efficacité est modérée, inférieure à celles des triptans ce qui fait réserver ce traitement aux cas d'intolérances ou d'inefficacité de ces derniers[5].
-Administré durant la phase prodromique, elle peut parfois empêcher la crise migraineuse de survenir[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il permet la sédation de la crise migraineuse dans un cas sur cinq après une prise de 50 mg ou de 25 mg d'ubrogepant. Cette efficacité est modérée, inférieure à celles des triptans ce qui fait réserver ce traitement aux cas d'intolérances ou d'inefficacité de ces derniers.
+Administré durant la phase prodromique, elle peut parfois empêcher la crise migraineuse de survenir.
 </t>
         </is>
       </c>
